--- a/fridaa_ocr/results/BNP.xlsx
+++ b/fridaa_ocr/results/BNP.xlsx
@@ -40,7 +40,7 @@
     <t>Frais de banque</t>
   </si>
   <si>
-    <t>Frais de garanites</t>
+    <t>Frais de garanties</t>
   </si>
   <si>
     <t>Montant emprunté</t>
